--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H2">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J2">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N2">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q2">
-        <v>0.03899398726666667</v>
+        <v>0.1986435647065555</v>
       </c>
       <c r="R2">
-        <v>0.3509458854</v>
+        <v>1.787792082359</v>
       </c>
       <c r="S2">
-        <v>0.0006027031233012325</v>
+        <v>0.003177997995283137</v>
       </c>
       <c r="T2">
-        <v>0.0006027031233012326</v>
+        <v>0.003177997995283137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H3">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I3">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J3">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>20.79327</v>
       </c>
       <c r="O3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q3">
-        <v>3.56518634984</v>
+        <v>6.086192439363334</v>
       </c>
       <c r="R3">
-        <v>32.08667714856001</v>
+        <v>54.77573195427001</v>
       </c>
       <c r="S3">
-        <v>0.0551046225025649</v>
+        <v>0.0973699168144547</v>
       </c>
       <c r="T3">
-        <v>0.0551046225025649</v>
+        <v>0.09736991681445471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5143760000000001</v>
+        <v>0.8781003333333334</v>
       </c>
       <c r="H4">
-        <v>1.543128</v>
+        <v>2.634301</v>
       </c>
       <c r="I4">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="J4">
-        <v>0.05817279150595395</v>
+        <v>0.1010434633250494</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N4">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q4">
-        <v>0.1595119411493333</v>
+        <v>0.03097469655822222</v>
       </c>
       <c r="R4">
-        <v>1.435607470344</v>
+        <v>0.278772269024</v>
       </c>
       <c r="S4">
-        <v>0.002465465880087821</v>
+        <v>0.0004955485153115818</v>
       </c>
       <c r="T4">
-        <v>0.002465465880087821</v>
+        <v>0.0004955485153115819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>0.345897</v>
       </c>
       <c r="I5">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J5">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N5">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q5">
-        <v>0.008740625024999999</v>
+        <v>0.02608290134699999</v>
       </c>
       <c r="R5">
-        <v>0.07866562522499999</v>
+        <v>0.234746112123</v>
       </c>
       <c r="S5">
-        <v>0.0001350978028008865</v>
+        <v>0.0004172871560897753</v>
       </c>
       <c r="T5">
-        <v>0.0001350978028008865</v>
+        <v>0.0004172871560897753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>0.345897</v>
       </c>
       <c r="I6">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J6">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>20.79327</v>
       </c>
       <c r="O6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q6">
         <v>0.79914774591</v>
@@ -827,10 +827,10 @@
         <v>7.19232971319</v>
       </c>
       <c r="S6">
-        <v>0.01235187464019167</v>
+        <v>0.0127851608894995</v>
       </c>
       <c r="T6">
-        <v>0.01235187464019167</v>
+        <v>0.01278516088949951</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>0.345897</v>
       </c>
       <c r="I7">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="J7">
-        <v>0.01303961438295135</v>
+        <v>0.01326751606355713</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N7">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q7">
-        <v>0.035755103859</v>
+        <v>0.004067133792</v>
       </c>
       <c r="R7">
-        <v>0.321795934731</v>
+        <v>0.036604204128</v>
       </c>
       <c r="S7">
-        <v>0.0005526419399587959</v>
+        <v>6.506801796785188E-05</v>
       </c>
       <c r="T7">
-        <v>0.0005526419399587959</v>
+        <v>6.506801796785189E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H8">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I8">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J8">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N8">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O8">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P8">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q8">
-        <v>0.3225907132861111</v>
+        <v>0.7964712615443331</v>
       </c>
       <c r="R8">
-        <v>2.903316419575</v>
+        <v>7.168241353898998</v>
       </c>
       <c r="S8">
-        <v>0.004986061802705505</v>
+        <v>0.01274234116885534</v>
       </c>
       <c r="T8">
-        <v>0.004986061802705506</v>
+        <v>0.01274234116885534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H9">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I9">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J9">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>20.79327</v>
       </c>
       <c r="O9">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P9">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q9">
-        <v>29.49418841750333</v>
+        <v>24.40289156783</v>
       </c>
       <c r="R9">
-        <v>265.44769575753</v>
+        <v>219.62602411047</v>
       </c>
       <c r="S9">
-        <v>0.4558712951537532</v>
+        <v>0.390409528726687</v>
       </c>
       <c r="T9">
-        <v>0.4558712951537532</v>
+        <v>0.3904095287266871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.255346333333333</v>
+        <v>3.520787</v>
       </c>
       <c r="H10">
-        <v>12.766039</v>
+        <v>10.562361</v>
       </c>
       <c r="I10">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="J10">
-        <v>0.4812537424658724</v>
+        <v>0.4051387963370292</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N10">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O10">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P10">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q10">
-        <v>1.319615522288555</v>
+        <v>0.1241945878293333</v>
       </c>
       <c r="R10">
-        <v>11.876539700597</v>
+        <v>1.117751290464</v>
       </c>
       <c r="S10">
-        <v>0.02039638550941363</v>
+        <v>0.001986926441486737</v>
       </c>
       <c r="T10">
-        <v>0.02039638550941363</v>
+        <v>0.001986926441486738</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H11">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I11">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J11">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N11">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O11">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P11">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q11">
-        <v>0.009047017038888888</v>
+        <v>0.01049659253333333</v>
       </c>
       <c r="R11">
-        <v>0.08142315335</v>
+        <v>0.09446933279999999</v>
       </c>
       <c r="S11">
-        <v>0.0001398334924974168</v>
+        <v>0.0001679296788572804</v>
       </c>
       <c r="T11">
-        <v>0.0001398334924974169</v>
+        <v>0.0001679296788572804</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H12">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I12">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J12">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,22 +1187,22 @@
         <v>20.79327</v>
       </c>
       <c r="O12">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P12">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q12">
-        <v>0.8271609013266666</v>
+        <v>0.321602576</v>
       </c>
       <c r="R12">
-        <v>7.44444811194</v>
+        <v>2.894423184</v>
       </c>
       <c r="S12">
-        <v>0.01278485463138073</v>
+        <v>0.005145157072245006</v>
       </c>
       <c r="T12">
-        <v>0.01278485463138073</v>
+        <v>0.005145157072245007</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1193406666666667</v>
+        <v>0.0464</v>
       </c>
       <c r="H13">
-        <v>0.358022</v>
+        <v>0.1392</v>
       </c>
       <c r="I13">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="J13">
-        <v>0.01349670225706788</v>
+        <v>0.005339272199663925</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N13">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O13">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P13">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q13">
-        <v>0.03700845567844444</v>
+        <v>0.001636744533333333</v>
       </c>
       <c r="R13">
-        <v>0.333076101106</v>
+        <v>0.0147307008</v>
       </c>
       <c r="S13">
-        <v>0.00057201413318973</v>
+        <v>2.618544856163824E-05</v>
       </c>
       <c r="T13">
-        <v>0.00057201413318973</v>
+        <v>2.618544856163824E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H14">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I14">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J14">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N14">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O14">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P14">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q14">
-        <v>0.08169030191666667</v>
+        <v>0.09297402080333331</v>
       </c>
       <c r="R14">
-        <v>0.7352127172499999</v>
+        <v>0.8367661872299998</v>
       </c>
       <c r="S14">
-        <v>0.00126263056331978</v>
+        <v>0.001487444368826588</v>
       </c>
       <c r="T14">
-        <v>0.00126263056331978</v>
+        <v>0.001487444368826588</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H15">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I15">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J15">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>20.79327</v>
       </c>
       <c r="O15">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P15">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q15">
-        <v>7.468873273100001</v>
+        <v>2.8486086791</v>
       </c>
       <c r="R15">
-        <v>67.2198594579</v>
+        <v>25.6374781119</v>
       </c>
       <c r="S15">
-        <v>0.1154412145250535</v>
+        <v>0.04557345054142187</v>
       </c>
       <c r="T15">
-        <v>0.1154412145250535</v>
+        <v>0.04557345054142188</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.07759</v>
+        <v>0.41099</v>
       </c>
       <c r="H16">
-        <v>3.23277</v>
+        <v>1.23297</v>
       </c>
       <c r="I16">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="J16">
-        <v>0.1218688632418715</v>
+        <v>0.0472928336495663</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N16">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O16">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P16">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q16">
-        <v>0.3341689205233334</v>
+        <v>0.01449753525333333</v>
       </c>
       <c r="R16">
-        <v>3.00752028471</v>
+        <v>0.13047781728</v>
       </c>
       <c r="S16">
-        <v>0.005165018153498286</v>
+        <v>0.0002319387393178383</v>
       </c>
       <c r="T16">
-        <v>0.005165018153498286</v>
+        <v>0.0002319387393178384</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H17">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I17">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J17">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N17">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O17">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P17">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q17">
-        <v>0.2092505080111111</v>
+        <v>0.841253631351111</v>
       </c>
       <c r="R17">
-        <v>1.8832545721</v>
+        <v>7.571282682159999</v>
       </c>
       <c r="S17">
-        <v>0.003234240547605508</v>
+        <v>0.01345879166993352</v>
       </c>
       <c r="T17">
-        <v>0.003234240547605509</v>
+        <v>0.01345879166993352</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H18">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I18">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J18">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>20.79327</v>
       </c>
       <c r="O18">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P18">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q18">
-        <v>19.13159200049333</v>
+        <v>25.77496783386667</v>
       </c>
       <c r="R18">
-        <v>172.18432800444</v>
+        <v>231.9747105048</v>
       </c>
       <c r="S18">
-        <v>0.2957038010390643</v>
+        <v>0.4123606834458522</v>
       </c>
       <c r="T18">
-        <v>0.2957038010390643</v>
+        <v>0.4123606834458523</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.760257333333333</v>
+        <v>3.718746666666667</v>
       </c>
       <c r="H19">
-        <v>8.280771999999999</v>
+        <v>11.15624</v>
       </c>
       <c r="I19">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251341</v>
       </c>
       <c r="J19">
-        <v>0.3121682861462829</v>
+        <v>0.4279181184251342</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N19">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O19">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P19">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q19">
-        <v>0.8559769610395555</v>
+        <v>0.1311775490844445</v>
       </c>
       <c r="R19">
-        <v>7.703792649355999</v>
+        <v>1.18059794176</v>
       </c>
       <c r="S19">
-        <v>0.01323024455961306</v>
+        <v>0.002098643309348355</v>
       </c>
       <c r="T19">
-        <v>0.01323024455961306</v>
+        <v>0.002098643309348355</v>
       </c>
     </row>
   </sheetData>
